--- a/templates/PL-BJ-Lamp_5.xlsx
+++ b/templates/PL-BJ-Lamp_5.xlsx
@@ -614,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/templates/PL-BJ-Lamp_5.xlsx
+++ b/templates/PL-BJ-Lamp_5.xlsx
@@ -137,17 +137,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor indexed="8"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -227,13 +222,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -243,6 +231,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +627,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -655,12 +650,12 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="18">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -673,80 +668,80 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" thickTop="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">
